--- a/results/MVSE/dblp/MVSE_dblp<l10>AllRes_90.91.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l10>AllRes_90.91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         <v>128</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H2" t="n">
         <v>50</v>
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0.19</v>
@@ -583,14 +583,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_26_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_04_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -631,102 +631,102 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="P3" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_04_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_38_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>128</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>dblp</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NCEK</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>128</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="N4" t="n">
-        <v>90.28</v>
+        <v>90.56</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="P4" t="n">
-        <v>0.59</v>
+        <v>0.23</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_29_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_57_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -772,29 +772,29 @@
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="N5" t="n">
-        <v>90.23999999999999</v>
+        <v>90.28</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="P5" t="n">
-        <v>0.13</v>
+        <v>0.59</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_21_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_29_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -840,29 +840,29 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="N6" t="n">
-        <v>90.13</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_15_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-03_21_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -903,34 +903,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" t="n">
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="N7" t="n">
-        <v>90.03</v>
+        <v>90.2</v>
       </c>
       <c r="O7" t="n">
         <v>0.05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.74</v>
+        <v>0.33</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_41_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_20_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -976,29 +976,29 @@
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="N8" t="n">
-        <v>89.86</v>
+        <v>90.13</v>
       </c>
       <c r="O8" t="n">
         <v>0.01</v>
       </c>
       <c r="P8" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_57_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_15_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1017,14 +1017,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -1039,34 +1039,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="N9" t="n">
-        <v>89.75</v>
+        <v>90.03</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_27_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_41_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1107,34 +1107,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="N10" t="n">
-        <v>89.73999999999999</v>
+        <v>89.86</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_27_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_57_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>128</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H11" t="n">
         <v>50</v>
@@ -1182,27 +1182,27 @@
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="N11" t="n">
-        <v>89.59</v>
+        <v>89.75</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_12_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_27_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1221,14 +1221,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>128</v>
       </c>
       <c r="G12" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
@@ -1243,7 +1243,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
@@ -1251,26 +1253,24 @@
         <v>0.34</v>
       </c>
       <c r="N12" t="n">
-        <v>89.08</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="P12" t="n">
-        <v>0.18</v>
+        <v>0.7</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_22_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_27_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -1321,24 +1321,24 @@
         <v>0.25</v>
       </c>
       <c r="N13" t="n">
-        <v>89.06999999999999</v>
+        <v>89.73</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="P13" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_58_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_50_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1357,14 +1357,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>128</v>
       </c>
       <c r="G14" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
         <v>50</v>
@@ -1379,34 +1379,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
       <c r="L14" t="n">
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="N14" t="n">
-        <v>88.86</v>
+        <v>89.59</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="P14" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_10_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_12_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>128</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H15" t="n">
         <v>50</v>
@@ -1452,29 +1452,29 @@
         <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="N15" t="n">
-        <v>87.95999999999999</v>
+        <v>89.08</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="P15" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_24_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_22_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1493,14 +1493,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>128</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H16" t="n">
         <v>50</v>
@@ -1515,34 +1515,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
       <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="N16" t="n">
-        <v>87.5</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_40_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_58_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>128</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" t="n">
         <v>50</v>
@@ -1583,34 +1583,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="N17" t="n">
-        <v>86.84999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="P17" t="n">
-        <v>0.32</v>
+        <v>0.71</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_12_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_10_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1629,14 +1629,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>128</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
         <v>50</v>
@@ -1651,34 +1651,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="N18" t="n">
-        <v>84.22</v>
+        <v>88.58</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="P18" t="n">
-        <v>0.92</v>
+        <v>0.29</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_11_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_00_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1697,14 +1697,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>128</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
         <v>50</v>
@@ -1719,34 +1719,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="N19" t="n">
-        <v>83.52</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="P19" t="n">
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_43_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_24_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>128</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
         <v>50</v>
@@ -1792,23 +1792,363 @@
         <v>2</v>
       </c>
       <c r="M20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N20" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_40_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>128</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N21" t="n">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_12_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>128</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N22" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_37_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>50</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N23" t="n">
+        <v>84.22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_11_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>128</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N24" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_43_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>128</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>50</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.46</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N25" t="n">
         <v>82.95999999999999</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O25" t="n">
         <v>0.2</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P25" t="n">
         <v>2.81</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_56_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="R25" t="n">
         <v>8192</v>
       </c>
     </row>
